--- a/docs/data/single_parent.xlsx
+++ b/docs/data/single_parent.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.9157509157509157</v>
+        <v>0.5899937067337949</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.5396825396825397</v>
+        <v>0.3477029578351165</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2.721367521367521</v>
+        <v>1.75330396475771</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2.908831908831909</v>
+        <v>1.874082232011748</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.592592592592593</v>
+        <v>2.314610866372981</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="C7">
-        <v>1.860805860805861</v>
+        <v>1.198867212083071</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.61025641025641</v>
+        <v>1.037444933920705</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3.538461538461539</v>
+        <v>2.279735682819383</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.8864468864468864</v>
+        <v>0.5711139081183135</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,11 +571,11 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.247863247863248</v>
+        <v>0.8039647577092511</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -591,11 +591,11 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.516483516483516</v>
+        <v>0.9770295783511644</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2.329059829059829</v>
+        <v>1.500550660792952</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -631,11 +631,11 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.170940170940171</v>
+        <v>0.7544052863436124</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.680911680911681</v>
+        <v>1.082966226138032</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -671,11 +671,11 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.552136752136752</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.476495726495727</v>
+        <v>0.9512665198237886</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.8461538461538461</v>
+        <v>0.5451541850220265</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.45679012345679</v>
+        <v>0.938570729319628</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
         </is>
       </c>
       <c r="C20">
-        <v>1.190883190883191</v>
+        <v>0.7672540381791484</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.5641025641025641</v>
+        <v>0.3634361233480177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -791,11 +791,11 @@
         </is>
       </c>
       <c r="C22">
-        <v>1.355311355311355</v>
+        <v>0.8731906859660165</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -811,11 +811,11 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.36019536019536</v>
+        <v>0.8763373190685967</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.564102564102564</v>
+        <v>1.651982378854626</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -851,11 +851,11 @@
         </is>
       </c>
       <c r="C25">
-        <v>2.083028083028083</v>
+        <v>1.342039018250472</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -871,11 +871,11 @@
         </is>
       </c>
       <c r="C26">
-        <v>2.438746438746439</v>
+        <v>1.5712187958884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2.337606837606838</v>
+        <v>1.506057268722467</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -911,11 +911,11 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.739316239316239</v>
+        <v>1.120594713656388</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="C29">
-        <v>1.111111111111111</v>
+        <v>0.7158590308370044</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2.832478632478633</v>
+        <v>1.82488986784141</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.956315289648623</v>
+        <v>1.260401370533529</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -991,11 +991,11 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.458119658119658</v>
+        <v>1.583700440528634</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.7663817663817665</v>
+        <v>0.4937591776798826</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1031,11 +1031,11 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.763125763125763</v>
+        <v>1.135934550031467</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.042735042735043</v>
+        <v>0.6718061674008811</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="C36">
-        <v>2.407814407814408</v>
+        <v>1.551290119572058</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1091,11 +1091,11 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.550671550671551</v>
+        <v>0.9990560100692261</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="C38">
-        <v>2.473748473748474</v>
+        <v>1.593769666456891</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1131,11 +1131,11 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.821733821733822</v>
+        <v>1.173694147262429</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>2.817094017094017</v>
+        <v>1.814977973568282</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1171,11 +1171,11 @@
         </is>
       </c>
       <c r="C41">
-        <v>2.02991452991453</v>
+        <v>1.307819383259912</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1191,11 +1191,11 @@
         </is>
       </c>
       <c r="C42">
-        <v>1.618233618233618</v>
+        <v>1.042584434654919</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>2.58974358974359</v>
+        <v>1.668502202643172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1231,11 +1231,11 @@
         </is>
       </c>
       <c r="C44">
-        <v>1.403263403263403</v>
+        <v>0.9040849018822588</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1251,11 +1251,11 @@
         </is>
       </c>
       <c r="C45">
-        <v>1.321367521367521</v>
+        <v>0.8513215859030838</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.2974358974358974</v>
+        <v>0.1916299559471366</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1291,11 +1291,11 @@
         </is>
       </c>
       <c r="C47">
-        <v>1.47008547008547</v>
+        <v>0.947136563876652</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="C48">
-        <v>1.628205128205128</v>
+        <v>1.049008810572687</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1331,11 +1331,11 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.442735042735043</v>
+        <v>0.9295154185022027</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1351,11 +1351,11 @@
         </is>
       </c>
       <c r="C50">
-        <v>1.504273504273504</v>
+        <v>0.9691629955947137</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.9088319088319088</v>
+        <v>0.5855359765051396</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1391,11 +1391,11 @@
         </is>
       </c>
       <c r="C52">
-        <v>1.596581196581197</v>
+        <v>1.02863436123348</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1411,11 +1411,11 @@
         </is>
       </c>
       <c r="C53">
-        <v>2.504273504273504</v>
+        <v>1.613436123348018</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1431,11 +1431,11 @@
         </is>
       </c>
       <c r="C54">
-        <v>1.098290598290598</v>
+        <v>0.7075991189427313</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>2.263736263736264</v>
+        <v>1.458464443045941</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.865689865689866</v>
+        <v>1.202013845185651</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.6393162393162393</v>
+        <v>0.4118942731277533</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1511,11 +1511,11 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.184615384615385</v>
+        <v>0.7632158590308371</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.4957264957264957</v>
+        <v>0.3193832599118943</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.9474969474969475</v>
+        <v>0.6104468219005664</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1571,11 +1571,11 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.918803418803419</v>
+        <v>1.236233480176212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.636752136752137</v>
+        <v>1.698788546255507</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.252991452991453</v>
+        <v>0.8072687224669605</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1631,11 +1631,11 @@
         </is>
       </c>
       <c r="C64">
-        <v>1.073504273504273</v>
+        <v>0.6916299559471366</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1651,11 +1651,11 @@
         </is>
       </c>
       <c r="C65">
-        <v>1.452991452991453</v>
+        <v>0.9361233480176212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.7321937321937322</v>
+        <v>0.4717327459618209</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>2.191452991452992</v>
+        <v>1.411894273127754</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1711,11 +1711,11 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.816239316239316</v>
+        <v>1.170154185022027</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1731,11 +1731,11 @@
         </is>
       </c>
       <c r="C69">
-        <v>1.124786324786325</v>
+        <v>0.7246696035242292</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
         </is>
       </c>
       <c r="C70">
-        <v>1.196581196581197</v>
+        <v>0.7709251101321587</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1771,11 +1771,11 @@
         </is>
       </c>
       <c r="C71">
-        <v>1.675213675213675</v>
+        <v>1.079295154185022</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1.288546255506608</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1811,11 +1811,11 @@
         </is>
       </c>
       <c r="C73">
-        <v>1.145299145299145</v>
+        <v>0.7378854625550662</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1831,11 +1831,11 @@
         </is>
       </c>
       <c r="C74">
-        <v>2.463980463980464</v>
+        <v>1.587476400251731</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>4.194871794871795</v>
+        <v>2.702643171806168</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1871,11 +1871,11 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.279202279202279</v>
+        <v>0.8241556534508077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1891,11 +1891,11 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.723076923076923</v>
+        <v>1.110132158590308</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="C78">
-        <v>1.837606837606838</v>
+        <v>1.183920704845815</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.9444444444444444</v>
+        <v>0.6084801762114538</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1951,11 +1951,11 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.230769230769231</v>
+        <v>0.7929515418502203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
